--- a/dedup_openvas.xlsx
+++ b/dedup_openvas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>Other References</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>scanner</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -638,7 +643,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>The repaired package can be downloaded from the referenced
+          <t>OPENVAS: The repaired package can be downloaded from the referenced
   vendor homepage. Please validate the package with its signature.</t>
         </is>
       </c>
@@ -675,6 +680,7 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -765,7 +771,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Change the password as soon as possible.</t>
+          <t>OPENVAS: Change the password as soon as possible.</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -795,6 +801,7 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -884,7 +891,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>If you do not want to share files, you should disable anonymous
+          <t>OPENVAS: If you do not want to share files, you should disable anonymous
   logins.</t>
         </is>
       </c>
@@ -915,6 +922,7 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -999,7 +1007,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Enable FTPS or enforce the connection via the 'AUTH TLS' command. Please see
+          <t>OPENVAS: Enable FTPS or enforce the connection via the 'AUTH TLS' command. Please see
   the manual of the FTP service for more information.</t>
         </is>
       </c>
@@ -1021,6 +1029,7 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1106,7 +1115,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Disable the reported weak KEX algorithm(s)
+          <t>OPENVAS: Disable the reported weak KEX algorithm(s)
   - 1024-bit MODP group / prime KEX algorithms:
   Alternatively use elliptic-curve Diffie-Hellmann in general, e.g. Curve 25519.</t>
         </is>
@@ -1147,6 +1156,7 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1227,7 +1237,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Disable the reported weak host key algorithm(s).</t>
+          <t>OPENVAS: Disable the reported weak host key algorithm(s).</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1256,6 +1266,7 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1354,7 +1365,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Disable the reported weak encryption algorithm(s).</t>
+          <t>OPENVAS: Disable the reported weak encryption algorithm(s).</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1395,6 +1406,7 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1481,7 +1493,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Disable the reported weak MAC algorithm(s).</t>
+          <t>OPENVAS: Disable the reported weak MAC algorithm(s).</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1513,6 +1525,7 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1600,7 +1613,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Upgrade to version 4.2.4 or later.</t>
+          <t>OPENVAS: Upgrade to version 4.2.4 or later.</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1632,6 +1645,7 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1726,7 +1740,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Update to version 5.3.13, 5.4.3 or later.</t>
+          <t>OPENVAS: Update to version 5.3.13, 5.4.3 or later.</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1765,6 +1779,7 @@
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1852,7 +1867,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Use access restrictions to these dangerous HTTP methods
+          <t>OPENVAS: Use access restrictions to these dangerous HTTP methods
   or disable them completely.</t>
         </is>
       </c>
@@ -1877,6 +1892,7 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1963,7 +1979,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Upgrade to TWiki version 4.3.2 or later.</t>
+          <t>OPENVAS: Upgrade to TWiki version 4.3.2 or later.</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1992,6 +2008,7 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2079,7 +2096,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Update to version 1.9.0 or later.</t>
+          <t>OPENVAS: Update to version 1.9.0 or later.</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2115,6 +2132,7 @@
         </is>
       </c>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2196,7 +2214,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Update to version 6.1.0 or later.</t>
+          <t>OPENVAS: Update to version 6.1.0 or later.</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2219,6 +2237,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2305,7 +2324,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Upgrade to version 4.3.1 or later.</t>
+          <t>OPENVAS: Upgrade to version 4.3.1 or later.</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2334,6 +2353,7 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2420,7 +2440,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Disable the TRACE and TRACK methods in your web server
+          <t>OPENVAS: Disable the TRACE and TRACK methods in your web server
   configuration.
   Please see the manual of your web server or the references for more information.</t>
         </is>
@@ -2456,6 +2476,7 @@
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2553,7 +2574,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Delete the listed files or restrict access to them.</t>
+          <t>OPENVAS: Delete the listed files or restrict access to them.</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2587,6 +2608,7 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2669,7 +2691,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>No known solution was made available for at least one year since the disclosure
+          <t>OPENVAS: No known solution was made available for at least one year since the disclosure
   of this vulnerability. Likely none will be provided anymore. General solution options are to upgrade to a newer
   release, disable respective features, remove the product or replace the product by another one.</t>
         </is>
@@ -2690,6 +2712,7 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2771,7 +2794,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Use access restrictions for the /doc directory.
+          <t>OPENVAS: Use access restrictions for the /doc directory.
   If you use Apache you might use this in your access.conf:
   &lt;Directory /usr/doc&gt;
   AllowOverride None
@@ -2797,6 +2820,7 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2880,7 +2904,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>No known solution was made available for at least one year
+          <t>OPENVAS: No known solution was made available for at least one year
   since the disclosure of this vulnerability. Likely none will be provided anymore. General
   solution options are to upgrade to a newer release, disable respective features, remove the
   product or replace the product by another one.</t>
@@ -2906,6 +2930,7 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2993,7 +3018,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Enforce the transmission of sensitive data via an encrypted SSL/TLS connection.
+          <t>OPENVAS: Enforce the transmission of sensitive data via an encrypted SSL/TLS connection.
   Additionally make sure the host / application is redirecting all users to the secured SSL/TLS connection before
   allowing to input sensitive data into the mentioned functions.</t>
         </is>
@@ -3023,6 +3048,7 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3110,7 +3136,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Update to version 1.6.3 or later.</t>
+          <t>OPENVAS: Update to version 1.6.3 or later.</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3143,6 +3169,7 @@
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3227,7 +3254,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>No known solution was made available for at least one year since the disclosure
+          <t>OPENVAS: No known solution was made available for at least one year since the disclosure
   of this vulnerability. Likely none will be provided anymore. General solution options are to upgrade to a newer
   release, disable respective features, remove the product or replace the product by another one.</t>
         </is>
@@ -3263,6 +3290,7 @@
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3347,7 +3375,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Update to Apache HTTP Server version 2.2.22 or later.</t>
+          <t>OPENVAS: Update to Apache HTTP Server version 2.2.22 or later.</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3387,6 +3415,7 @@
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3472,7 +3501,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Updates are available. Please see the referenced vendor advisory.</t>
+          <t>OPENVAS: Updates are available. Please see the referenced vendor advisory.</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3503,6 +3532,7 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3594,7 +3624,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Disable class-loading. Please contact the vendor of the
+          <t>OPENVAS: Disable class-loading. Please contact the vendor of the
   affected system for additional guidance.</t>
         </is>
       </c>
@@ -3627,6 +3657,7 @@
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3708,7 +3739,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>A whole cleanup of the infected system is recommended.</t>
+          <t>OPENVAS: A whole cleanup of the infected system is recommended.</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -3727,6 +3758,7 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3814,7 +3846,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Vendor updates are available. Please see the references for
+          <t>OPENVAS: Vendor updates are available. Please see the references for
   more information.
   For more information about DistCC's security see the references.</t>
         </is>
@@ -3845,6 +3877,7 @@
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3922,7 +3955,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Change the password as soon as possible.</t>
+          <t>OPENVAS: Change the password as soon as possible.</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -3948,6 +3981,7 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4032,7 +4066,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Updates are available. Please see the references for more information.</t>
+          <t>OPENVAS: Updates are available. Please see the references for more information.</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -4066,6 +4100,7 @@
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4155,7 +4190,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>It is recommended to disable the deprecated SSLv2 and/or SSLv3
+          <t>OPENVAS: It is recommended to disable the deprecated SSLv2 and/or SSLv3
   protocols in favor of the TLSv1.2+ protocols. Please see the references for more information.</t>
         </is>
       </c>
@@ -4199,6 +4234,7 @@
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4286,7 +4322,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>The configuration of this services should be changed so
+          <t>OPENVAS: The configuration of this services should be changed so
   that it does not accept the listed weak cipher suites anymore.
   Please see the references for more resources supporting you with this task.</t>
         </is>
@@ -4329,6 +4365,7 @@
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4412,7 +4449,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Replace the certificate with a stronger key and reissue the
+          <t>OPENVAS: Replace the certificate with a stronger key and reissue the
   certificates it signed.</t>
         </is>
       </c>
@@ -4438,6 +4475,7 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4527,7 +4565,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Users should contact their vendors for specific patch information.
+          <t>OPENVAS: Users should contact their vendors for specific patch information.
   A general solution is to remove/disable renegotiation capabilities altogether from/in the affected
   SSL/TLS service.</t>
         </is>
@@ -4568,6 +4606,7 @@
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4656,7 +4695,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Replace the SSL/TLS certificate by a new one.</t>
+          <t>OPENVAS: Replace the SSL/TLS certificate by a new one.</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -4687,6 +4726,7 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4776,7 +4816,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>It is recommended to disable the deprecated TLSv1.0 and/or
+          <t>OPENVAS: It is recommended to disable the deprecated TLSv1.0 and/or
   TLSv1.1 protocols in favor of the TLSv1.2+ protocols. Please see the references for more
   information.</t>
         </is>
@@ -4822,6 +4862,7 @@
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4901,7 +4942,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Servers that use SSL/TLS certificates signed with a weak SHA-1, MD5, MD4 or MD2 hashing algorithm will need to obtain new
+          <t>OPENVAS: Servers that use SSL/TLS certificates signed with a weak SHA-1, MD5, MD4 or MD2 hashing algorithm will need to obtain new
   SHA-2 signed SSL/TLS certificates to avoid web browser SSL/TLS certificate warnings.</t>
         </is>
       </c>
@@ -4937,6 +4978,7 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -5018,7 +5060,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Deploy (Ephemeral) Elliptic-Curve Diffie-Hellman (ECDHE) or use
+          <t>OPENVAS: Deploy (Ephemeral) Elliptic-Curve Diffie-Hellman (ECDHE) or use
   a 2048-bit or stronger Diffie-Hellman group (see the references).
   For Apache Web Servers:
   Beginning with version 2.4.7, mod_ssl will use DH parameters which include primes with lengths of more than 1024 bits.</t>
@@ -5047,6 +5089,7 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -5130,7 +5173,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Possible Mitigations are:
+          <t>OPENVAS: Possible Mitigations are:
   - Disable SSLv3
   - Disable cipher suites supporting CBC cipher modes
   - Enable TLS_FALLBACK_SCSV if the service is providing TLSv1.0+</t>
@@ -5167,6 +5210,7 @@
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5243,7 +5287,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Change the password to something hard to guess or enable
+          <t>OPENVAS: Change the password to something hard to guess or enable
   password protection at all.</t>
         </is>
       </c>
@@ -5273,6 +5317,7 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5356,7 +5401,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Run the session over an encrypted channel provided by IPsec [RFC4301] or SSH [RFC4254].
+          <t>OPENVAS: Run the session over an encrypted channel provided by IPsec [RFC4301] or SSH [RFC4254].
   Some VNC server vendors are also providing more secure Security Types within their products.</t>
         </is>
       </c>
@@ -5376,6 +5421,7 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5460,7 +5506,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>The repaired package can be downloaded from the referenced
+          <t>OPENVAS: The repaired package can be downloaded from the referenced
   vendor homepage. Please validate the package with its signature.</t>
         </is>
       </c>
@@ -5490,6 +5536,7 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5577,7 +5624,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Upgrade to UnrealIRCd 3.2.10.7,
+          <t>OPENVAS: Upgrade to UnrealIRCd 3.2.10.7,
   or 4.0.6, or later.</t>
         </is>
       </c>
@@ -5614,6 +5661,7 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5701,7 +5749,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Upgrade to UnrealIRCd 3.2.10.7,
+          <t>OPENVAS: Upgrade to UnrealIRCd 3.2.10.7,
   or 4.0.6, or later.</t>
         </is>
       </c>
@@ -5738,6 +5786,7 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -6006,7 +6055,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Update Apache Tomcat to version 7.0.100, 8.5.51, 9.0.31 or later. For other products
+          <t>OPENVAS: Update Apache Tomcat to version 7.0.100, 8.5.51, 9.0.31 or later. For other products
   using Tomcat please contact the vendor for more information on fixed versions.</t>
         </is>
       </c>
@@ -6042,6 +6091,7 @@
         </is>
       </c>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -6130,7 +6180,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Change the password to a strong one or remove the user from tomcat-users.xml.</t>
+          <t>OPENVAS: Change the password to a strong one or remove the user from tomcat-users.xml.</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6160,6 +6210,7 @@
         </is>
       </c>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -6249,7 +6300,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Change the password as soon as possible.</t>
+          <t>OPENVAS: Change the password as soon as possible.</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6275,6 +6326,7 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -6361,7 +6413,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Enforce the transmission of sensitive data via an encrypted SSL/TLS connection.
+          <t>OPENVAS: Enforce the transmission of sensitive data via an encrypted SSL/TLS connection.
   Additionally make sure the host / application is redirecting all users to the secured SSL/TLS connection before
   allowing to input sensitive data into the mentioned functions.</t>
         </is>
@@ -6391,6 +6443,7 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6476,7 +6529,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Update your Apache Tomcat to a non-affected version.</t>
+          <t>OPENVAS: Update your Apache Tomcat to a non-affected version.</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -6515,6 +6568,7 @@
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6601,7 +6655,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Administrators of environments that rely on Distributed Ruby should ensure that
+          <t>OPENVAS: Administrators of environments that rely on Distributed Ruby should ensure that
   appropriate controls are in place. Code-level controls may include:
   - Implementing taint on untrusted input
   - Setting $SAFE levels appropriately (&gt;=2 is recommended if untrusted hosts are allowed to submit Ruby commands, and &gt;=3 may be appropriate)
@@ -6625,6 +6679,7 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6716,7 +6771,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Disable class-loading. Please contact the vendor of the
+          <t>OPENVAS: Disable class-loading. Please contact the vendor of the
   affected system for additional guidance.</t>
         </is>
       </c>
@@ -6749,6 +6804,7 @@
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6833,7 +6889,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Upgrade the OS on the remote host to a version which is still
+          <t>OPENVAS: Upgrade the OS on the remote host to a version which is still
   supported and receiving security updates by the vendor.</t>
         </is>
       </c>
@@ -6861,6 +6917,7 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6942,7 +6999,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>To disable TCP timestamps on linux add the line
+          <t>OPENVAS: To disable TCP timestamps on linux add the line
   'net.ipv4.tcp_timestamps = 0' to /etc/sysctl.conf. Execute 'sysctl -p' to apply the settings at
   runtime.
   To disable TCP timestamps on Windows execute 'netsh int tcp set global timestamps=disabled'
@@ -6980,6 +7037,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -7063,7 +7121,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Various mitigations are possible:
+          <t>OPENVAS: Various mitigations are possible:
   - Disable the support for ICMP timestamp on the remote host completely
   - Protect the remote host by a firewall, and block ICMP packets passing through the firewall in
   either direction (either completely or only for untrusted networks)</t>
@@ -7096,6 +7154,7 @@
         </is>
       </c>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
